--- a/Mifos Automation Excels/Loan Product/824-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-Late Repayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/824-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-Late Repayment-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>productname</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>Overdue/Due Fee/Int,Principal</t>
+  </si>
+  <si>
+    <t>allowPartialPeriodInterestCalcualtion</t>
   </si>
 </sst>
 </file>
@@ -656,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -813,202 +816,210 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>16</v>
+      <c r="A19" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B22" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B27" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B28" s="20">
         <v>42005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B30" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B31" s="10">
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B44" s="13" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Loan Product/824-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-Late Repayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/824-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-Late Repayment-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>824C</t>
   </si>
   <si>
-    <t>824RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-Late Repayment</t>
-  </si>
-  <si>
     <t>verifyloanproduct</t>
   </si>
   <si>
@@ -140,12 +137,6 @@
     <t>Checked</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Dollar </t>
-  </si>
-  <si>
     <t>decimalplaces</t>
   </si>
   <si>
@@ -231,6 +222,15 @@
   </si>
   <si>
     <t>maximumallowedoutstandingbalancefortranchloan</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>824-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-Late Repayment</t>
+  </si>
+  <si>
+    <t>US Dollar</t>
   </si>
 </sst>
 </file>
@@ -315,7 +315,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -352,6 +352,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -673,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -700,23 +701,23 @@
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>42</v>
+      <c r="A6" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" s="11">
         <v>2</v>
@@ -724,7 +725,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" s="12">
         <v>0</v>
@@ -760,7 +761,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -901,7 +902,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B30" s="10">
         <v>10000</v>
@@ -909,7 +910,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
@@ -917,98 +918,98 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1021,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1033,10 +1034,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/824-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-Late Repayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/824-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-Late Repayment-Loanproduct.xlsx
@@ -56,9 +56,6 @@
     <t>repaymentstrategy</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>interestcalculationperiod</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>US Dollar</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -701,23 +701,23 @@
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="11">
         <v>2</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="12">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="13">
         <v>12</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="13">
         <v>1</v>
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -777,7 +777,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -785,7 +785,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -800,37 +800,37 @@
       <c r="A17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>13</v>
+      <c r="B17" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>7</v>
@@ -838,39 +838,39 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="19">
         <v>1</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="20">
         <v>42005</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>7</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="10">
         <v>1</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="10">
         <v>10000</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
@@ -918,98 +918,98 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1034,10 +1034,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
